--- a/trunk/Docs/Tested_Cell_240mAh_9s.xlsx
+++ b/trunk/Docs/Tested_Cell_240mAh_9s.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="24855" windowHeight="12015"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Test coin cell battery</t>
   </si>
@@ -24,130 +24,13 @@
     <t>Capacity: 240mAh</t>
   </si>
   <si>
-    <t>0 min</t>
-  </si>
-  <si>
-    <t>5 mins</t>
-  </si>
-  <si>
     <t>Volatge (V)</t>
-  </si>
-  <si>
-    <t>10 mins</t>
-  </si>
-  <si>
-    <t>30 mins</t>
-  </si>
-  <si>
-    <t>4 hr</t>
-  </si>
-  <si>
-    <t>12 hr</t>
-  </si>
-  <si>
-    <t>23 hr</t>
-  </si>
-  <si>
-    <t>1 day</t>
-  </si>
-  <si>
-    <t>1.5 days</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t>3 days</t>
-  </si>
-  <si>
-    <t>4 days</t>
-  </si>
-  <si>
-    <t>5 days</t>
-  </si>
-  <si>
-    <t>6 days</t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>8 days</t>
-  </si>
-  <si>
-    <t>9days</t>
-  </si>
-  <si>
-    <t>10 days</t>
-  </si>
-  <si>
-    <t>11 days</t>
-  </si>
-  <si>
-    <t>12 days</t>
-  </si>
-  <si>
-    <t>13 days</t>
-  </si>
-  <si>
-    <t>14 days</t>
-  </si>
-  <si>
-    <t>15 days</t>
-  </si>
-  <si>
-    <t>16 days</t>
-  </si>
-  <si>
-    <t>17 days</t>
-  </si>
-  <si>
-    <t>18 days</t>
-  </si>
-  <si>
-    <t>19 days</t>
-  </si>
-  <si>
-    <t>20 days</t>
-  </si>
-  <si>
-    <t>21 days</t>
-  </si>
-  <si>
-    <t>22 days</t>
-  </si>
-  <si>
-    <t>23 days</t>
-  </si>
-  <si>
-    <t>24 days</t>
-  </si>
-  <si>
-    <t>25 days</t>
-  </si>
-  <si>
-    <t>26 days</t>
-  </si>
-  <si>
-    <t>27 days</t>
-  </si>
-  <si>
-    <t>28 days</t>
-  </si>
-  <si>
-    <t>29 days</t>
-  </si>
-  <si>
-    <t>30 days</t>
-  </si>
-  <si>
-    <t>31 days</t>
   </si>
   <si>
     <t>Broadcast every 9s</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Time (Days)</t>
   </si>
 </sst>
 </file>
@@ -192,6 +75,389 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Battery Voltage vs.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volatge (V)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>6.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="39684736"/>
+        <c:axId val="39702912"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39684736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39702912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39702912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39684736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,14 +745,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,331 +769,276 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
+      <c r="A5">
+        <v>0</v>
       </c>
       <c r="B5">
         <v>6.49</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>6.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B10">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B11">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>6.12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B12">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B13">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B14">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>5.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B16">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>5.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B17">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B18">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B19">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B20">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B21">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B22">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B23">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B24">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B25">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B26">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B27">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B28">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B29">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B30">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B31">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B32">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B33">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B34">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B35">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
         <v>31</v>
-      </c>
-      <c r="B33">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>34</v>
       </c>
       <c r="B36">
         <v>5.82</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>5.82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>5.82</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
